--- a/Input/FilteredWines.xlsx
+++ b/Input/FilteredWines.xlsx
@@ -106,7 +106,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Reds</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -138,7 +138,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Reds</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -170,7 +170,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Reds</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -197,12 +197,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Barca Velha Douro N.V.</t>
+          <t>Barca Velha Douro N.v.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Reds</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -224,17 +224,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Quinta do Crasto</t>
+          <t>Quinta Do Crasto</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Vinha Maria Teresa N.V.</t>
+          <t>Vinha Maria Teresa N.v.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Reds</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -266,7 +266,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Reds</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -298,7 +298,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Reds</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -330,7 +330,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Reds</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -352,7 +352,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Quinta do Crasto</t>
+          <t>Quinta Do Crasto</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -362,7 +362,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Reds</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -394,7 +394,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Reds</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
